--- a/biology/Zoologie/Alipiopsitta_xanthops/Alipiopsitta_xanthops.xlsx
+++ b/biology/Zoologie/Alipiopsitta_xanthops/Alipiopsitta_xanthops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alipiopsitta xanthops, anciennement connu sous son ancien nom CINFO d'Amazone à face jaune (Amazona xanthops), est l'unique espèce du genre Alipiopsitta. Des recherches récentes ont montré qu'elle était davantage liée à Graydidascalus brachyurus et aux espèces du genre Pionus. Ce n'est donc pas une amazone.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle atteint 27 cm de long. Son plumage présente une dominante verte avec des ondulations jaunâtres très marquées sur la poitrine et le ventre.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit au Brésil et le nord-est de la Bolivie.
 Cette espèce semi-nomade est présente dans l'est du Brésil dans la région du Cerrado, de la caatinga et des forêts galeries. Elle est en constante diminution et a déjà disparu d'une grande partie de sa zone de répartition initiale.
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette amazone consomme des graines et des fruits.
 </t>
@@ -605,7 +623,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La ponte comporte le plus souvent trois œufs qui éclosent après 24 jours d'incubation. Les premiers jours, les petits sont nourris d'une pâte riche en protéines régurgitée par les parents.
 </t>
@@ -636,7 +656,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce forme des groupes importants mais les couples restent unis presque tout le temps, même durant les vols.
 </t>
@@ -667,7 +689,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Environ 40 ans.
 </t>
@@ -698,7 +722,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Brésil : papagaio-galego, papagaio-curraleiro, papagaio-goiaba, papagaio-de-barriga-amarela</t>
         </is>
